--- a/WebApplication1/Template/TierDataTemplate.xlsx
+++ b/WebApplication1/Template/TierDataTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\esahu\source\repos\OpenXMLExcel\WebApplication1\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC10F29D-8FD9-4152-9FE3-B6A59121ACFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68726B51-5399-4320-BF41-6A43A24F3265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -439,7 +439,8 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="77" zoomScaleNormal="77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -447,11 +448,11 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.90625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.90625" customWidth="1"/>
+    <col min="5" max="5" width="21.6328125" customWidth="1"/>
+    <col min="6" max="6" width="34.08984375" customWidth="1"/>
+    <col min="7" max="7" width="30.7265625" customWidth="1"/>
+    <col min="8" max="8" width="30.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.5" x14ac:dyDescent="0.35">
